--- a/Donnees/Statistiques Economiques/Transport et Communication_2.xlsx
+++ b/Donnees/Statistiques Economiques/Transport et Communication_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Ansade_Project\Donnees\Statistiques Economiques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587CECAA-462D-4AAA-A12F-D2048AC5649D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DA8606-DDB8-432A-B778-34B6006AE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB999371-695F-4B71-807B-4E369D1A42C3}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>Source: Agence Nationale de l'Aviation Civile</t>
   </si>
   <si>
-    <t>Tableau : EVOLUTION MENSUELLE DU TRAFIC AERIEN</t>
+    <t>Tableau: Evolution mensuelle du trafic aerien</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AA5DC6-9987-4769-AC39-944B731F818D}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
